--- a/AWS作業メモ.xlsx
+++ b/AWS作業メモ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yasuhiro\1_株式会社グッドワークス\AWS演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DF81C3-1C4A-479E-BAEC-D52CA17BD994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFBC11-C310-4B0D-AF86-4F85F1072817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F858D63A-2CE0-452C-92FE-0D03887F9B23}"/>
   </bookViews>
@@ -635,6 +635,138 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="69532500"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>125087</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>95596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4F3629-8DE1-5F70-53D8-68DE53217606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="77390625"/>
+          <a:ext cx="9040487" cy="2476846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C0CF435-464E-6587-90BC-20BCF15AA7F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="80248125"/>
+          <a:ext cx="13012966" cy="7316221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>668566</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>172471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{742ACF25-E957-731F-47CE-DAABAC303CC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="87868125"/>
           <a:ext cx="13012966" cy="7316221"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1143,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82F0586-BEEA-403B-98A5-7C99AB25C157}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="A293" sqref="A293"/>
+    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="A370" sqref="A370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/AWS作業メモ.xlsx
+++ b/AWS作業メモ.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yasuhiro\1_株式会社グッドワークス\AWS演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFBC11-C310-4B0D-AF86-4F85F1072817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA25CE2-CFCE-4CE0-A4E1-C0B646B89AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F858D63A-2CE0-452C-92FE-0D03887F9B23}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="作業メモ(20240703)" sheetId="2" r:id="rId2"/>
+    <sheet name="リンク" sheetId="1" r:id="rId1"/>
+    <sheet name="AWS構築手順" sheetId="3" r:id="rId2"/>
+    <sheet name="作業メモ(20240703)" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>https://cloudnavi.nhn-techorus.com/archives/3444#:~:text=%E7%84%A1%E6%96%99%E6%9E%A0%E3%81%A7%E3%81%AF30G,%E3%82%92%E5%88%A9%E7%94%A8%E3%81%A7%E3%81%8D%E3%81%BE%E3%81%99%E3%80%82</t>
     <phoneticPr fontId="1"/>
@@ -73,13 +74,272 @@
   </si>
   <si>
     <t>ssh-rsa AAAAB3NzaC1yc2EAAAADAQABAAABgQDZELGsdbdtW7ogUt1PhVSf/l15GoeUk86DYD2UNgeEtnBjilVEnJmMgborjR/Jw5AdbyO81yrU4gJkKDzAiC8kkJtHQaNuwmiYtlRxpeoAaerI6UL67l7TNGopgE4MFwFAUMQ78aNIbnCu3iQAeaPhAWJUdNc36VSElQTXxQeWB590MjglTBK3ka9pvPQypr5OZ9lp9OMgjaaimm3dWLtVDaYmE4NBSezXpjkfM1m/2rsWGdh8W5Zx1L1qXvrfkDQVwFKmk1YdJkMI3K18S2b2jLBzABm7fLLp/+v8CC7rPNojo/ySK554fM/UJuoIH/039lvh7IDDEUP/9wDpkXPKiJTJgl7t90kdGgchMBvp8wK22YZ3FTxXtpUlZFnOFt+iJEk2qgWg4iBZICQr5WjIh/oXaPFvePQharzSiXVjNJ2s5YiXCeqmzSEUaHIyfcgk58Okk5HubD/Eu0bD0mB6kd1rP6CayLRB6wU8VMVq1hzSJqWz2YMtapB1P7WAbFc= yasun@LAPTOP-FCFAN22B</t>
+  </si>
+  <si>
+    <t>https://github.com/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GITHUB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSでWordPressのWebサイトを構築するメリット</t>
+  </si>
+  <si>
+    <t>AWSでのWordPressのWebサイト構築には、次のようなメリットがあります。</t>
+  </si>
+  <si>
+    <t>低コスト稼働</t>
+  </si>
+  <si>
+    <t>レンタルサーバーやオンプレミスサーバーよりも自由度が高い</t>
+  </si>
+  <si>
+    <t>レンタルサーバーでは、提供する会社がマシンスペックや権限、セキュリティ、どのようなプログラムを使えるかなどを規定しています。その条件を超えるWebサイトは作れません。</t>
+  </si>
+  <si>
+    <t>スケールアップやスケールダウンが容易で、必要な分だけ利用できる</t>
+  </si>
+  <si>
+    <t>複製が簡単</t>
+  </si>
+  <si>
+    <t>構築したインスタンスをAMI（Amazonマシンイメージ）として保存し、別なインスタンスに複製できます。同じ構成のインスタンスを複製することで、簡単にテスト環境から本番の環境を構築したり、バックアップを作成したりすることが可能です。</t>
+  </si>
+  <si>
+    <t>高いセキュリティ、可用性、信頼性</t>
+  </si>
+  <si>
+    <t>Webサイトを複数のインスタンスで運用し、ELB（Elastic Load Balancing）でトラフィックを分散することで、負荷を分散できます。またELBの死活監視機能により、障害が発生したインスタンスを切り離して安定した稼働が可能です。</t>
+  </si>
+  <si>
+    <t>セキュリティでは、ログイン履歴監視、ブルートフォースアタック対策、2段階認証などの機能を標準搭載しています。さらに必要な権限の制限やアプリケーションの追加により、より高いセキュリティを実現可能です。</t>
+  </si>
+  <si>
+    <t>ビジネス用のレンタルサーバーやオンプレミスサーバーを用意してWebサイトを構築するよりも、AWSを使う方がコストを抑えられます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSなら初期費用がかからず、料金は利用した分だけで済むからです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンプレミスサーバーの場合は、仕様は社内の基準に従う必要があるため、必要なプログラムや十分なリソースを使えないこともあります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSでは、必要なサービスを組み合わせることでマシンスペックを柔軟に選ぶことや、セキュリティを十分に強化することができます。インスタンスではroot権限で管理できるので、高度なプログラミングも可能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスの利用量は、アクセス数の変化によって柔軟に増減できます。インスタンスの増減は、オートスケーリングによって自動的に行われるので、必要な分だけ利用可能です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンペーンやイベントなどで一時的にアクセスが増加したり、キャンペーン終了に合わせてアクセスが減少したりしても、容易に対応できます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSでWordPressのWebサイトを構築するデメリット</t>
+  </si>
+  <si>
+    <t>利用するためにはある程度の知識が必要</t>
+  </si>
+  <si>
+    <t>稼働してみないと料金が分かりにくい</t>
+  </si>
+  <si>
+    <t>小規模なWebサイトには過剰な性能でコストもかかる</t>
+  </si>
+  <si>
+    <t>AWSでのWordPressのWebサイト構築には、次のようなデメリットもあるため、あらかじめ注意が必要です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSでは多種多様なサービスが提供されています。欲しい環境を実現するためには、それらを必要に応じて組み合わせて使わなければなりません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、AWSを使うときは、専門知識のある管理者が必要です。レンタルサーバーを利用するよりも必要な知識が多く、オンプレミスサーバーのように専任の管理者に一任することもできません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンプレミスサーバーでは、一度構築すれば余分なコストはあまりかかりません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンタルサーバーでは、月額が決まっています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかしAWSでは、複数のサービスを利用すると、それぞれに料金がかかるシステムです。また、実際の料金はデータ転送量によって変化します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのため、Webサイト1つに合計でいくらのコストがかかるか、実際に稼働してみないと分かりにくいのです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSでWebサイトを構築するには、いくつかのサービスを組み合わせて使うため、無料利用枠がなくなれば、毎月数千円のコストがかかります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能的にも、ビジネス用途の大きなWebサービスにふさわしく、個人や小規模なWebサイトには過剰な性能を持っています。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ごく小規模なWebサイトの運営では、レンタルサーバーを使った方が安上がりな場合もあるでしょう。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSを使ってWordPressサイトを構築する手順</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWSを使ってWordPressサイトを構築する方法には、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon EC2（Amazon Elastic Compute Cloud）を使用する方法と、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon Lightsailを使用する方法</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の2種類があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon EC2を使ってWordPressサイトを構築する場合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon EC2でWordPressサイトを構築するには、ほかのサービスと組み合わせる必要があります。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この2つのサービスでWebサーバーとデータベースサーバーの設定を行って、PHPやWordPressなど必要なシステムをインストールし、Webサイトを構築します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般的には、Amazon EC2でWebサーバーを、Amazon RDS（Amazon Relational Database Service）でMySQLデータベースを作成します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ほかに、次のようなサービスと連携することもできます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Amazon S3（Amazon Simple Storage Service）でバックアップを保存する
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・AMIでインスタンスやデータベースを複製する
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・ELBで、インスタンス間のトラフィック振り分けを行う
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・AWS Certificate ManagerでSSL証明書をプロビジョンする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">・Amazon Route 53でDNSサーバーを用意し、独自ドメインにも対応する
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Amazon S3（Amazon Simple Storage Service）でバックアップを保存する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【超初心者向け】WordPressをAmazon EC2インスタンスにインストールする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/moomindani/items/9968df0d4396564bf74c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linux初心者向け AWS EC2でLAMP環境構築を丁寧に解説</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.heiyoshilog-business.com/aws-ec2-lamp/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linux、Apache、MySQL、そしてPHP（LAMP）を組み合わせたウェブ開発環境</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. EC2インスタンスの作成</t>
+  </si>
+  <si>
+    <t>2. Linuxのインストール</t>
+  </si>
+  <si>
+    <t>3. ソフトウェアの最新化</t>
+  </si>
+  <si>
+    <t>4. Apacheのインストール</t>
+  </si>
+  <si>
+    <t>5. PHPのインストール</t>
+  </si>
+  <si>
+    <t>6. Apacheの設定とwebページ表示確認</t>
+  </si>
+  <si>
+    <t>7. PHPの動作確認</t>
+  </si>
+  <si>
+    <t>8. MySQL(MariaDB)のインストール</t>
+  </si>
+  <si>
+    <t>9. phpMyAdminをインストール/ログイン</t>
+  </si>
+  <si>
+    <t>https://qiita.com/moomindani/items/9968df0d4396564bf74c#7-wordpress-%E3%82%92%E3%82%A4%E3%83%B3%E3%82%B9%E3%83%88%E3%83%BC%E3%83%AB%E3%81%99%E3%82%8B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10. WordPress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>をインストールする</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WordPress、LAMP環境の構築手順</t>
+    <rPh sb="19" eb="21">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +364,84 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF004060"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF004060"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF004060"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,11 +451,40 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF004060"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF004060"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -130,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,6 +506,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -776,6 +1185,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>334379</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>698</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74FA0B0-2245-32C8-5521-AE76EFDCE7F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="95488125"/>
+          <a:ext cx="7192379" cy="5001323"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1076,102 +1529,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42CF353E-DBBD-417E-93D3-B2577056787B}">
-  <dimension ref="A2:O23"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1255,28 +1687,360 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:O23"/>
+    <mergeCell ref="A19:O25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location=":~:text=%E7%84%A1%E6%96%99%E6%9E%A0%E3%81%A7%E3%81%AF30G,%E3%82%92%E5%88%A9%E7%94%A8%E3%81%A7%E3%81%8D%E3%81%BE%E3%81%99%E3%80%82" xr:uid="{68CA0EFC-6D13-436F-8F11-E272B27EFABA}"/>
-    <hyperlink ref="A6" r:id="rId2" xr:uid="{65C177AB-95A8-47D3-BF38-55BF86580359}"/>
-    <hyperlink ref="A9" r:id="rId3" xr:uid="{6ED25D39-E27F-405F-8EDA-95B8A2142781}"/>
-    <hyperlink ref="A12" r:id="rId4" xr:uid="{D59F0F37-79DC-4F6F-8D45-72C5DE96167A}"/>
-    <hyperlink ref="A15" r:id="rId5" xr:uid="{91B0DDB3-5D52-4547-B5A3-9C7BD8C1DD0D}"/>
+    <hyperlink ref="A5" r:id="rId1" location=":~:text=%E7%84%A1%E6%96%99%E6%9E%A0%E3%81%A7%E3%81%AF30G,%E3%82%92%E5%88%A9%E7%94%A8%E3%81%A7%E3%81%8D%E3%81%BE%E3%81%99%E3%80%82" xr:uid="{68CA0EFC-6D13-436F-8F11-E272B27EFABA}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{65C177AB-95A8-47D3-BF38-55BF86580359}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{6ED25D39-E27F-405F-8EDA-95B8A2142781}"/>
+    <hyperlink ref="A14" r:id="rId4" xr:uid="{D59F0F37-79DC-4F6F-8D45-72C5DE96167A}"/>
+    <hyperlink ref="A17" r:id="rId5" xr:uid="{91B0DDB3-5D52-4547-B5A3-9C7BD8C1DD0D}"/>
+    <hyperlink ref="A2" r:id="rId6" xr:uid="{32C49CA8-5260-4886-BCDA-3859EF2390FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFB3087-9CCC-4E2B-839B-9FE2AEC816FD}">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A17" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A28" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A31" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A32" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A33" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A34" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A35" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" spans="1:14" ht="24" x14ac:dyDescent="0.4">
+      <c r="A36" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A21" r:id="rId1" xr:uid="{C64A0153-94F6-4B13-BE20-B17B5ABA1851}"/>
+    <hyperlink ref="A24" r:id="rId2" xr:uid="{9AE4C544-4D8F-4E43-A8B4-D03387DBF78A}"/>
+    <hyperlink ref="F36" r:id="rId3" location="7-wordpress-%E3%82%92%E3%82%A4%E3%83%B3%E3%82%B9%E3%83%88%E3%83%BC%E3%83%AB%E3%81%99%E3%82%8B" xr:uid="{3AD58D2F-AEC3-4680-9774-1DC862B330DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82F0586-BEEA-403B-98A5-7C99AB25C157}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="A370" sqref="A370"/>
+    <sheetView topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="E461" sqref="E461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1286,6 +2050,161 @@
         <v>6</v>
       </c>
     </row>
+    <row r="425" spans="1:1" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A425" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A426" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A427" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A428" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A429" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A430" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A431" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A432" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A433" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A434" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A435" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A436" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A437" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A438" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A439" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A440" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A441" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A444" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A445" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A446" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A447" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A448" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A449" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A450" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A451" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A452" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A453" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A454" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A455" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A456" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A457" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AWS作業メモ.xlsx
+++ b/AWS作業メモ.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yasuhiro\1_株式会社グッドワークス\AWS演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA25CE2-CFCE-4CE0-A4E1-C0B646B89AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63DFB2B-B42A-4166-B5BD-81CFCCFDA673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{F858D63A-2CE0-452C-92FE-0D03887F9B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{F858D63A-2CE0-452C-92FE-0D03887F9B23}"/>
   </bookViews>
   <sheets>
     <sheet name="リンク" sheetId="1" r:id="rId1"/>
     <sheet name="AWS構築手順" sheetId="3" r:id="rId2"/>
     <sheet name="作業メモ(20240703)" sheetId="2" r:id="rId3"/>
+    <sheet name="作業メモ(20240704)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>https://cloudnavi.nhn-techorus.com/archives/3444#:~:text=%E7%84%A1%E6%96%99%E6%9E%A0%E3%81%A7%E3%81%AF30G,%E3%82%92%E5%88%A9%E7%94%A8%E3%81%A7%E3%81%8D%E3%81%BE%E3%81%99%E3%80%82</t>
     <phoneticPr fontId="1"/>
@@ -332,6 +333,18 @@
     <rPh sb="19" eb="21">
       <t>テジュン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS初心者向けAWS環境のWordPress基本パターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【AWS】EC2にWordPressをインストール(構築)する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://kacfg.com/ec2-wordpress/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -497,15 +510,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -513,7 +523,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -537,9 +547,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -548,6 +555,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1232,6 +1242,562 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4889356A-D9BF-7C33-379D-A4E8EC209B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="1914525"/>
+          <a:ext cx="5257800" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>AWS</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6DC0EF-64EF-2639-DDE7-92AA37DFF491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="2343150"/>
+          <a:ext cx="4667250" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+            <a:t>VPC</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="グラフィックス 2" descr="ノート PC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B49E23-BE40-5153-D9C3-9420BDBC8BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="2095500"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="グラフィックス 4" descr="クラウドからダウンロード">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1F7549-B408-E740-BB72-3A93B9B7B998}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="3438525"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>228599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7FC1BD-8A31-AB16-4C7F-C46A97EC63C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="3086099"/>
+          <a:ext cx="1619250" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AWS EC2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Amazon Linux)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WordPress</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 角を丸めた四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A3CB3D-723D-35B1-805C-747CEF43CD1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5286374" y="2838449"/>
+          <a:ext cx="1438275" cy="1257301"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -115625"/>
+            <a:gd name="adj2" fmla="val 20522"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MS-SQL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PHP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>phpMyAdmin</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10494BD2-CBF5-395F-3634-A1AC5B3C237A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="2943225"/>
+          <a:ext cx="0" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="79375">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C623D88C-953D-4D4A-B70E-BC1605A1FC1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="3771900"/>
+          <a:ext cx="2009775" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1601,125 +2167,125 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1740,16 +2306,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFB3087-9CCC-4E2B-839B-9FE2AEC816FD}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1773,251 +2339,138 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="12" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A9" s="13" t="s">
+      <c r="A9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A12" s="13" t="s">
+      <c r="A12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
+      <c r="A14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A15" s="13" t="s">
+      <c r="A15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+      <c r="A16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:1" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:1" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="16" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A29" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="16" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A30" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="16" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A31" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="16" t="s">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A32" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="16" t="s">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A34" s="16" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="16" t="s">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-    </row>
-    <row r="36" spans="1:14" ht="24" x14ac:dyDescent="0.4">
-      <c r="A36" s="16" t="s">
+    </row>
+    <row r="36" spans="1:6" ht="24" x14ac:dyDescent="0.4">
+      <c r="A36" s="14" t="s">
         <v>76</v>
       </c>
       <c r="F36" s="1" t="s">
@@ -2050,158 +2503,158 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:1" s="9" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A425" s="8" t="s">
+    <row r="425" spans="1:1" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A425" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="426" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A426" s="5" t="s">
+      <c r="A426" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="427" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A427" s="10" t="s">
+    <row r="427" spans="1:1" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A427" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="428" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A428" s="5" t="s">
+      <c r="A428" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="429" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A429" s="5" t="s">
+      <c r="A429" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A430" s="10" t="s">
+    <row r="430" spans="1:1" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A430" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="431" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A431" s="5" t="s">
+      <c r="A431" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="432" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A432" s="5" t="s">
+      <c r="A432" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="433" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A433" s="5" t="s">
+      <c r="A433" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A434" s="6" t="s">
+      <c r="A434" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="435" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A435" s="5" t="s">
+      <c r="A435" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="436" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A436" s="5" t="s">
+      <c r="A436" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="437" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A437" s="10" t="s">
+    <row r="437" spans="1:1" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A437" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="438" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A438" s="5" t="s">
+      <c r="A438" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="439" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A439" s="10" t="s">
+    <row r="439" spans="1:1" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A439" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="440" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A440" s="5" t="s">
+      <c r="A440" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="441" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A441" s="5" t="s">
+      <c r="A441" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="444" spans="1:1" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.4">
-      <c r="A444" s="7" t="s">
+    <row r="444" spans="1:1" s="2" customFormat="1" ht="24" x14ac:dyDescent="0.4">
+      <c r="A444" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="445" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A445" s="5" t="s">
+      <c r="A445" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="446" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A446" s="10" t="s">
+    <row r="446" spans="1:1" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A446" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="447" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A447" s="5" t="s">
+      <c r="A447" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="448" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A448" s="5" t="s">
+      <c r="A448" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="449" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A449" s="10" t="s">
+    <row r="449" spans="1:1" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A449" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="450" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A450" s="5" t="s">
+      <c r="A450" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="451" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A451" s="5" t="s">
+      <c r="A451" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="452" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A452" s="5" t="s">
+      <c r="A452" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="453" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A453" s="5" t="s">
+      <c r="A453" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="454" spans="1:1" s="11" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A454" s="10" t="s">
+    <row r="454" spans="1:1" s="10" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="A454" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="455" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A455" s="5" t="s">
+      <c r="A455" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="456" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A456" s="5" t="s">
+      <c r="A456" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="457" spans="1:1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A457" s="5" t="s">
+      <c r="A457" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2210,4 +2663,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F25CE-9B68-49D5-B731-4DF9FCA943F0}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B076FAAB-4EF0-4695-8A2E-FAE9C0C5476D}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{BA9BFF53-6BBC-4CD0-AC75-1113DAC26AE7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/AWS作業メモ.xlsx
+++ b/AWS作業メモ.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yasuhiro\1_株式会社グッドワークス\AWS演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63DFB2B-B42A-4166-B5BD-81CFCCFDA673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B8C4B4-E36B-445B-BDED-4B05511FA127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{F858D63A-2CE0-452C-92FE-0D03887F9B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{F858D63A-2CE0-452C-92FE-0D03887F9B23}"/>
   </bookViews>
   <sheets>
     <sheet name="リンク" sheetId="1" r:id="rId1"/>
     <sheet name="AWS構築手順" sheetId="3" r:id="rId2"/>
     <sheet name="作業メモ(20240703)" sheetId="2" r:id="rId3"/>
     <sheet name="作業メモ(20240704)" sheetId="4" r:id="rId4"/>
+    <sheet name="作業メモ(20240705)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>https://cloudnavi.nhn-techorus.com/archives/3444#:~:text=%E7%84%A1%E6%96%99%E6%9E%A0%E3%81%A7%E3%81%AF30G,%E3%82%92%E5%88%A9%E7%94%A8%E3%81%A7%E3%81%8D%E3%81%BE%E3%81%99%E3%80%82</t>
     <phoneticPr fontId="1"/>
@@ -345,6 +346,16 @@
   </si>
   <si>
     <t>https://kacfg.com/ec2-wordpress/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベースで、手順所を作成する。</t>
+    <rPh sb="5" eb="8">
+      <t>テジュンジョ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2308,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFB3087-9CCC-4E2B-839B-9FE2AEC816FD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2485,6 +2496,7 @@
     <hyperlink ref="F36" r:id="rId3" location="7-wordpress-%E3%82%92%E3%82%A4%E3%83%B3%E3%82%B9%E3%83%88%E3%83%BC%E3%83%AB%E3%81%99%E3%82%8B" xr:uid="{3AD58D2F-AEC3-4680-9774-1DC862B330DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2669,7 +2681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F25CE-9B68-49D5-B731-4DF9FCA943F0}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2704,4 +2716,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E869A790-0352-41C4-BDB5-6A212DCA7DA6}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E45BBC1F-8DB8-4CAC-90DC-638A3C240FB0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AWS作業メモ.xlsx
+++ b/AWS作業メモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yasuhiro\1_株式会社グッドワークス\AWS演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B8C4B4-E36B-445B-BDED-4B05511FA127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F53968-F24D-4588-ACAA-7A7ED1868D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{F858D63A-2CE0-452C-92FE-0D03887F9B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{F858D63A-2CE0-452C-92FE-0D03887F9B23}"/>
   </bookViews>
   <sheets>
     <sheet name="リンク" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="作業メモ(20240703)" sheetId="2" r:id="rId3"/>
     <sheet name="作業メモ(20240704)" sheetId="4" r:id="rId4"/>
     <sheet name="作業メモ(20240705)" sheetId="5" r:id="rId5"/>
+    <sheet name="作業メモ(20240711)" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>https://cloudnavi.nhn-techorus.com/archives/3444#:~:text=%E7%84%A1%E6%96%99%E6%9E%A0%E3%81%A7%E3%81%AF30G,%E3%82%92%E5%88%A9%E7%94%A8%E3%81%A7%E3%81%8D%E3%81%BE%E3%81%99%E3%80%82</t>
     <phoneticPr fontId="1"/>
@@ -355,6 +356,20 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://qiita.com/nobu_y/items/f47a4b7943c97e3eb177</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phpMyAdminにログイン時のエラーで、参考にしたサイト。</t>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2319,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFB3087-9CCC-4E2B-839B-9FE2AEC816FD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2722,7 +2737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E869A790-0352-41C4-BDB5-6A212DCA7DA6}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2750,4 +2765,33 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D11A6B-ACC3-4D70-AB5D-E2CD23D61A04}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A0E068A-FD18-4B77-B43C-92FEA28D75F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AWS作業メモ.xlsx
+++ b/AWS作業メモ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yasuhiro\1_株式会社グッドワークス\AWS演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F53968-F24D-4588-ACAA-7A7ED1868D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0E28B9-8311-4A35-85E2-CD4E0EAAB47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{F858D63A-2CE0-452C-92FE-0D03887F9B23}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{F858D63A-2CE0-452C-92FE-0D03887F9B23}"/>
   </bookViews>
   <sheets>
     <sheet name="リンク" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="作業メモ(20240704)" sheetId="4" r:id="rId4"/>
     <sheet name="作業メモ(20240705)" sheetId="5" r:id="rId5"/>
     <sheet name="作業メモ(20240711)" sheetId="6" r:id="rId6"/>
+    <sheet name="作業メモ(20240712)" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>https://cloudnavi.nhn-techorus.com/archives/3444#:~:text=%E7%84%A1%E6%96%99%E6%9E%A0%E3%81%A7%E3%81%AF30G,%E3%82%92%E5%88%A9%E7%94%A8%E3%81%A7%E3%81%8D%E3%81%BE%E3%81%99%E3%80%82</t>
     <phoneticPr fontId="1"/>
@@ -370,6 +371,42 @@
     </rPh>
     <rPh sb="22" eb="24">
       <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amazon EC2の中で、</t>
+    <rPh sb="11" eb="12">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスタンスを再作成する場合は、キーペアも、その都度作成する必要がある。</t>
+    <rPh sb="7" eb="10">
+      <t>サイサクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ツドサクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再利用してまうと、作業途中で、エラーが発生してしまう。</t>
+    <rPh sb="0" eb="3">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>サギョウトチュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2334,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFB3087-9CCC-4E2B-839B-9FE2AEC816FD}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2794,4 +2831,35 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FBD219-0453-48D3-9379-B09B0757B4D4}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>